--- a/data/case1/15/Q_device_2.xlsx
+++ b/data/case1/15/Q_device_2.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.036064178012105506</v>
+        <v>-0.041771414354548571</v>
       </c>
       <c r="B1" s="0">
-        <v>0.036064177995711724</v>
+        <v>0.041771414331420578</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0064304492660157081</v>
+        <v>0.048472851300310905</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0064304492510876797</v>
+        <v>-0.048472851367908749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.039750784744492694</v>
+        <v>-0.014955321325077672</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.039750784753576865</v>
+        <v>0.01495532119247131</v>
       </c>
     </row>
     <row r="4">
